--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/app_nonobank_ui_testing/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/bankCard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/app_nonobank_ui_testing/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,39 +77,71 @@
     <t>pictureVerification</t>
   </si>
   <si>
+    <t>smsCode</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>sit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackBox</t>
+  </si>
+  <si>
+    <t>idCard</t>
+  </si>
+  <si>
+    <t>realName</t>
+  </si>
+  <si>
+    <t>bankCardNo</t>
+  </si>
+  <si>
+    <t>bankCode</t>
+  </si>
+  <si>
+    <t>bank_validCode</t>
+  </si>
+  <si>
+    <t>rechargeMoney</t>
+  </si>
+  <si>
+    <t>bank_mobile</t>
+  </si>
+  <si>
+    <t>payPassword</t>
+  </si>
+  <si>
+    <t>payPassword_second</t>
+  </si>
+  <si>
+    <t>rechargeSum</t>
+  </si>
+  <si>
+    <t>recharge_SmsCode</t>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+  </si>
+  <si>
+    <t>韩诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621226100102)}</t>
+  </si>
+  <si>
+    <t>ICBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smsCode</t>
-  </si>
-  <si>
-    <t>bankName</t>
-  </si>
-  <si>
-    <t>bankCardNum</t>
-  </si>
-  <si>
-    <t>bankMobile</t>
-  </si>
-  <si>
-    <t>bankSmsCode</t>
-  </si>
-  <si>
-    <t>bankLimitPrompt</t>
-  </si>
-  <si>
-    <t>中国工商银行</t>
-    <rPh sb="1" eb="2">
-      <t>gong'sh</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yin'h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
+    <t>1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -117,14 +149,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绑卡成功</t>
-    <rPh sb="1" eb="2">
-      <t>ch'gong</t>
-    </rPh>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>888888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,43 +520,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="45.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="44" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -526,44 +576,92 @@
         <v>18</v>
       </c>
       <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
+      <c r="G2" s="1">
+        <v>838939</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,19 @@
   </si>
   <si>
     <t>888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+  </si>
+  <si>
+    <t>充值</t>
+    <rPh sb="0" eb="1">
+      <t>ch'zh</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,148 +533,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.5" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="53.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="44" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="14" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="18.5" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+    <col min="20" max="20" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>838939</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="500" yWindow="4760" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,30 +87,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blackBox</t>
-  </si>
-  <si>
-    <t>idCard</t>
-  </si>
-  <si>
     <t>realName</t>
   </si>
   <si>
     <t>bankCardNo</t>
   </si>
   <si>
-    <t>bankCode</t>
-  </si>
-  <si>
-    <t>bank_validCode</t>
-  </si>
-  <si>
-    <t>rechargeMoney</t>
-  </si>
-  <si>
-    <t>bank_mobile</t>
-  </si>
-  <si>
     <t>payPassword</t>
   </si>
   <si>
@@ -133,35 +115,15 @@
     <t>${BankCardUtils.getUnUsedBankCard(621226100102)}</t>
   </si>
   <si>
-    <t>ICBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18663049557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it7891234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it7891234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +145,42 @@
     <rPh sb="0" eb="1">
       <t>ch'zh</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工商银行</t>
+    <rPh sb="1" eb="2">
+      <t>gogn's</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankMobile</t>
+  </si>
+  <si>
+    <t>18663049557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankSmsCode</t>
+  </si>
+  <si>
+    <t>061513</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,27 +545,27 @@
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="53.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="44" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" customWidth="1"/>
-    <col min="14" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="18.5" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" customWidth="1"/>
-    <col min="20" max="20" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="53.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="44" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="16" max="17" width="14.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -585,57 +583,51 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
       <c r="S1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -644,51 +636,45 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1">
-        <v>838939</v>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="4760" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <t>bankSmsCode</t>
   </si>
   <si>
-    <t>061513</t>
+    <t>06151312</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +534,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="68">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,9 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getUnUsedBankCard(621226100102)}</t>
-  </si>
-  <si>
     <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,31 +153,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bankMobile</t>
+  </si>
+  <si>
+    <t>18663049557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankSmsCode</t>
+  </si>
+  <si>
+    <t>06151312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>中国工商银行</t>
-    <rPh sb="1" eb="2">
-      <t>gogn's</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <rPh sb="0" eb="1">
+      <t>zhong'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'sh</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>yin'h</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bankMobile</t>
-  </si>
-  <si>
-    <t>18663049557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankSmsCode</t>
-  </si>
-  <si>
-    <t>06151312</t>
+    <t>中国建设银行</t>
+    <rPh sb="2" eb="3">
+      <t>jian'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国农业银行</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nog'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'sh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <rPh sb="0" eb="1">
+      <t>jiao't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国民生银行</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>min'sh</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <rPh sb="0" eb="1">
+      <t>zhogn'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国光大银行</t>
+    <rPh sb="0" eb="1">
+      <t>zhogn'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <rPh sb="0" eb="1">
+      <t>ping'an</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <rPh sb="0" eb="1">
+      <t>xing'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国邮政储蓄银行</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'zh</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <rPh sb="0" eb="1">
+      <t>hua'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海浦东发展银行</t>
+    <rPh sb="0" eb="1">
+      <t>shagn'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pu'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa'zh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东发展银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621226100102)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622827469345)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(620061511669)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621485021040)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622262406933)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621691506392)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622696779515)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622660633366)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622298316429)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622908192090)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621799417365)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622632349194)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622521071652)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622568683546)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -549,7 +761,7 @@
     <col min="9" max="9" width="53.33203125" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="44" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="18.5" customWidth="1"/>
@@ -562,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -583,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
         <v>15</v>
@@ -592,10 +804,10 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -607,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -624,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -636,10 +848,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -651,30 +863,856 @@
         <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/Recharge.xlsx
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pictureVerification</t>
   </si>
   <si>
@@ -81,10 +77,6 @@
   </si>
   <si>
     <t>environment</t>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>realName</t>
@@ -393,6 +385,14 @@
   </si>
   <si>
     <t>${BankCardUtils.getUnUsedBankCard(622568683546)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,14 +746,14 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -774,55 +774,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
@@ -836,55 +836,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T2" t="s">
         <v>6</v>
@@ -895,55 +895,55 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T3" t="s">
         <v>6</v>
@@ -954,55 +954,55 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T4" t="s">
         <v>6</v>
@@ -1013,55 +1013,55 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T5" t="s">
         <v>6</v>
@@ -1072,55 +1072,55 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T6" t="s">
         <v>6</v>
@@ -1131,55 +1131,55 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T7" t="s">
         <v>6</v>
@@ -1190,55 +1190,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T8" t="s">
         <v>6</v>
@@ -1249,55 +1249,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T9" t="s">
         <v>6</v>
@@ -1308,55 +1308,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T10" t="s">
         <v>6</v>
@@ -1367,55 +1367,55 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T11" t="s">
         <v>6</v>
@@ -1426,55 +1426,55 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T12" t="s">
         <v>6</v>
@@ -1485,55 +1485,55 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T13" t="s">
         <v>6</v>
@@ -1544,55 +1544,55 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T14" t="s">
         <v>6</v>
@@ -1603,55 +1603,55 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T15" t="s">
         <v>6</v>
@@ -1662,55 +1662,55 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T16" t="s">
         <v>6</v>
